--- a/Iran_Fuel_Subsidy_Reform_2005_2022.xlsx
+++ b/Iran_Fuel_Subsidy_Reform_2005_2022.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\search\Github\fuel_subsid_analysis\fuel_subsidy_reform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10095" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="Iran_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Variable_Descriptions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
   <si>
     <t>Year</t>
   </si>
@@ -96,13 +101,25 @@
   </si>
   <si>
     <t>نوع سیاست اجرا شده در آن سال</t>
+  </si>
+  <si>
+    <t>presidents</t>
+  </si>
+  <si>
+    <t>Ahmadinejad</t>
+  </si>
+  <si>
+    <t>Rouhani</t>
+  </si>
+  <si>
+    <t>Raisi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +182,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -211,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +268,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,14 +479,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +519,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -522,8 +554,11 @@
       <c r="J2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -534,7 +569,7 @@
         <v>0.12</v>
       </c>
       <c r="D3">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E3">
         <v>1045</v>
@@ -543,7 +578,7 @@
         <v>-0.5</v>
       </c>
       <c r="G3">
-        <v>0.431</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="H3">
         <v>12.8</v>
@@ -554,8 +589,11 @@
       <c r="J3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -575,7 +613,7 @@
         <v>-1</v>
       </c>
       <c r="G4">
-        <v>0.428</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="H4">
         <v>12.5</v>
@@ -586,8 +624,11 @@
       <c r="J4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -595,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D5">
         <v>10.3</v>
@@ -607,7 +648,7 @@
         <v>-0.5</v>
       </c>
       <c r="G5">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="H5">
         <v>12.3</v>
@@ -618,8 +659,11 @@
       <c r="J5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -639,7 +683,7 @@
         <v>-0.5</v>
       </c>
       <c r="G6">
-        <v>0.421</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -650,8 +694,11 @@
       <c r="J6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -682,8 +729,11 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -691,7 +741,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -714,8 +764,11 @@
       <c r="J8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -735,10 +788,10 @@
         <v>-3.6</v>
       </c>
       <c r="G9">
-        <v>0.384</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="H9">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I9">
         <v>42</v>
@@ -746,8 +799,11 @@
       <c r="J9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -767,7 +823,7 @@
         <v>-2.1</v>
       </c>
       <c r="G10">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="H10">
         <v>8.9</v>
@@ -778,8 +834,11 @@
       <c r="J10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -796,7 +855,7 @@
         <v>915</v>
       </c>
       <c r="F11">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G11">
         <v>0.38</v>
@@ -810,8 +869,11 @@
       <c r="J11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -828,10 +890,10 @@
         <v>905</v>
       </c>
       <c r="F12">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G12">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="H12">
         <v>10.1</v>
@@ -842,8 +904,11 @@
       <c r="J12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -863,7 +928,7 @@
         <v>-0.6</v>
       </c>
       <c r="G13">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="H13">
         <v>10.8</v>
@@ -874,8 +939,11 @@
       <c r="J13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -892,10 +960,10 @@
         <v>890</v>
       </c>
       <c r="F14">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G14">
-        <v>0.385</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="H14">
         <v>11.5</v>
@@ -906,8 +974,11 @@
       <c r="J14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -927,7 +998,7 @@
         <v>-0.6</v>
       </c>
       <c r="G15">
-        <v>0.386</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -938,8 +1009,11 @@
       <c r="J15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -959,7 +1033,7 @@
         <v>-0.6</v>
       </c>
       <c r="G16">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="H16">
         <v>12.8</v>
@@ -970,8 +1044,11 @@
       <c r="J16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -1002,8 +1079,11 @@
       <c r="J17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -1017,7 +1097,7 @@
         <v>15</v>
       </c>
       <c r="G18">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="H18">
         <v>14</v>
@@ -1028,8 +1108,11 @@
       <c r="J18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -1043,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="G19">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="H19">
         <v>15</v>
@@ -1054,21 +1137,25 @@
       <c r="J19" t="s">
         <v>14</v>
       </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1076,7 +1163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1092,7 +1179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +1219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
